--- a/test_env/dashboard_creation/bwb.xlsx
+++ b/test_env/dashboard_creation/bwb.xlsx
@@ -1002,19 +1002,19 @@
         <v>1991</v>
       </c>
       <c r="C25" t="n">
-        <v>1.611659943816009</v>
+        <v>1.605796365659359</v>
       </c>
       <c r="D25" t="n">
         <v>0.663940271</v>
       </c>
       <c r="E25" t="n">
-        <v>2.427417064773902</v>
+        <v>2.418585580357664</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1777668116960726</v>
+        <v>0.1771200564062623</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1180265451322964</v>
+        <v>0.117597138249909</v>
       </c>
     </row>
     <row r="26">
@@ -1025,19 +1025,19 @@
         <v>1992</v>
       </c>
       <c r="C26" t="n">
-        <v>1.597367243579461</v>
+        <v>1.595170373197115</v>
       </c>
       <c r="D26" t="n">
         <v>0.658293589</v>
       </c>
       <c r="E26" t="n">
-        <v>2.426527115365027</v>
+        <v>2.423189895590971</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1777016381124794</v>
+        <v>0.1774572438022588</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1169798491242433</v>
+        <v>0.1168189659166369</v>
       </c>
     </row>
     <row r="27">
@@ -1140,19 +1140,19 @@
         <v>1997</v>
       </c>
       <c r="C31" t="n">
-        <v>1.557548811605944</v>
+        <v>1.559211995598527</v>
       </c>
       <c r="D31" t="n">
         <v>0.6902036</v>
       </c>
       <c r="E31" t="n">
-        <v>2.256651242627457</v>
+        <v>2.259060943174633</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1652611338749192</v>
+        <v>0.1654376032545038</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1140638295405512</v>
+        <v>0.1141856293416303</v>
       </c>
     </row>
     <row r="32">
@@ -1163,19 +1163,19 @@
         <v>1998</v>
       </c>
       <c r="C32" t="n">
-        <v>1.567660016816226</v>
+        <v>1.567714000147012</v>
       </c>
       <c r="D32" t="n">
         <v>0.684810923</v>
       </c>
       <c r="E32" t="n">
-        <v>2.28918664139974</v>
+        <v>2.289265470940818</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1676437957548825</v>
+        <v>0.1676495686714481</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1148043025061246</v>
+        <v>0.1148082558624463</v>
       </c>
     </row>
     <row r="33">
@@ -1186,19 +1186,19 @@
         <v>1999</v>
       </c>
       <c r="C33" t="n">
-        <v>1.562922593102546</v>
+        <v>1.564079939769674</v>
       </c>
       <c r="D33" t="n">
         <v>0.690682024</v>
       </c>
       <c r="E33" t="n">
-        <v>2.262868496346657</v>
+        <v>2.264544154068898</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1657164414474029</v>
+        <v>0.1658391547359842</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1144573671889698</v>
+        <v>0.1145421230514987</v>
       </c>
     </row>
     <row r="34">
@@ -1209,19 +1209,19 @@
         <v>2000</v>
       </c>
       <c r="C34" t="n">
-        <v>1.550794040910641</v>
+        <v>1.554941631335987</v>
       </c>
       <c r="D34" t="n">
         <v>0.710701581</v>
       </c>
       <c r="E34" t="n">
-        <v>2.182060772579935</v>
+        <v>2.187896682526145</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1597986568100254</v>
+        <v>0.1602260374688904</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1135691580365614</v>
+        <v>0.1138728981465057</v>
       </c>
     </row>
     <row r="35">
@@ -1232,19 +1232,19 @@
         <v>2001</v>
       </c>
       <c r="C35" t="n">
-        <v>1.549670117056233</v>
+        <v>1.550489742549896</v>
       </c>
       <c r="D35" t="n">
         <v>0.692407769</v>
       </c>
       <c r="E35" t="n">
-        <v>2.238088863870379</v>
+        <v>2.239272596246528</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1639017568906234</v>
+        <v>0.1639884450553657</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1134868498238168</v>
+        <v>0.1135468733825648</v>
       </c>
     </row>
     <row r="36">
@@ -1301,19 +1301,19 @@
         <v>2004</v>
       </c>
       <c r="C38" t="n">
-        <v>1.425592434201416</v>
+        <v>1.427985993580319</v>
       </c>
       <c r="D38" t="n">
         <v>0.73391155</v>
       </c>
       <c r="E38" t="n">
-        <v>1.942458098937694</v>
+        <v>1.945719472026729</v>
       </c>
       <c r="F38" t="n">
-        <v>0.142251856144684</v>
+        <v>0.1424906959815635</v>
       </c>
       <c r="G38" t="n">
-        <v>0.104400280233522</v>
+        <v>0.1045755675484081</v>
       </c>
     </row>
     <row r="39">
@@ -1324,19 +1324,19 @@
         <v>2005</v>
       </c>
       <c r="C39" t="n">
-        <v>1.40002641424073</v>
+        <v>1.410548045123722</v>
       </c>
       <c r="D39" t="n">
         <v>0.749427571</v>
       </c>
       <c r="E39" t="n">
-        <v>1.868127712959109</v>
+        <v>1.882167269668976</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1368084257926022</v>
+        <v>0.1378365833639389</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1025280062340836</v>
+        <v>0.1032985358653757</v>
       </c>
     </row>
     <row r="40">
@@ -1347,19 +1347,19 @@
         <v>2006</v>
       </c>
       <c r="C40" t="n">
-        <v>1.388313963397991</v>
+        <v>1.405378496021678</v>
       </c>
       <c r="D40" t="n">
         <v>0.758150692</v>
       </c>
       <c r="E40" t="n">
-        <v>1.831184720989466</v>
+        <v>1.853692822352101</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1341029830434928</v>
+        <v>0.1357513167701655</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1016702693936883</v>
+        <v>0.1029199547492121</v>
       </c>
     </row>
     <row r="41">
@@ -1370,19 +1370,19 @@
         <v>2007</v>
       </c>
       <c r="C41" t="n">
-        <v>1.379688372479895</v>
+        <v>1.408893757585069</v>
       </c>
       <c r="D41" t="n">
         <v>0.768047272</v>
       </c>
       <c r="E41" t="n">
-        <v>1.796358665381595</v>
+        <v>1.834384170021593</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1315525697011782</v>
+        <v>0.1343372880015813</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1010385922835798</v>
+        <v>0.1031773875774929</v>
       </c>
     </row>
     <row r="42">
@@ -1393,19 +1393,19 @@
         <v>2008</v>
       </c>
       <c r="C42" t="n">
-        <v>1.360661427538693</v>
+        <v>1.380351075228878</v>
       </c>
       <c r="D42" t="n">
         <v>0.760138426</v>
       </c>
       <c r="E42" t="n">
-        <v>1.790017950676122</v>
+        <v>1.815920663940857</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1310882207215885</v>
+        <v>0.1329851517509411</v>
       </c>
       <c r="G42" t="n">
-        <v>0.09964519376644891</v>
+        <v>0.1010871239333315</v>
       </c>
     </row>
     <row r="43">
@@ -1416,19 +1416,19 @@
         <v>2009</v>
       </c>
       <c r="C43" t="n">
-        <v>1.352045644532072</v>
+        <v>1.363977034209024</v>
       </c>
       <c r="D43" t="n">
         <v>0.766817019</v>
       </c>
       <c r="E43" t="n">
-        <v>1.763192014563349</v>
+        <v>1.778751645324429</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1291236793979185</v>
+        <v>0.1302631564130984</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0990142349182236</v>
+        <v>0.09988800528622285</v>
       </c>
     </row>
     <row r="44">
@@ -1439,19 +1439,19 @@
         <v>2010</v>
       </c>
       <c r="C44" t="n">
-        <v>1.374690287479232</v>
+        <v>1.380901000651561</v>
       </c>
       <c r="D44" t="n">
         <v>0.781701864</v>
       </c>
       <c r="E44" t="n">
-        <v>1.758586426345316</v>
+        <v>1.766531543861792</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1287863987775481</v>
+        <v>0.1293682428413271</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1006725679822566</v>
+        <v>0.1011273965714701</v>
       </c>
     </row>
     <row r="45">
@@ -1508,19 +1508,19 @@
         <v>2013</v>
       </c>
       <c r="C47" t="n">
-        <v>1.361072189687606</v>
+        <v>1.342218401785662</v>
       </c>
       <c r="D47" t="n">
         <v>0.794820537</v>
       </c>
       <c r="E47" t="n">
-        <v>1.712427052809792</v>
+        <v>1.688706241602388</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1254060136009025</v>
+        <v>0.1236688696051807</v>
       </c>
       <c r="G47" t="n">
-        <v>0.09967527507329861</v>
+        <v>0.0982945573497727</v>
       </c>
     </row>
     <row r="48">
@@ -1531,19 +1531,19 @@
         <v>2014</v>
       </c>
       <c r="C48" t="n">
-        <v>1.338776677138519</v>
+        <v>1.331246744782096</v>
       </c>
       <c r="D48" t="n">
         <v>0.797185022</v>
       </c>
       <c r="E48" t="n">
-        <v>1.679380119034046</v>
+        <v>1.669934466960038</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1229858905248571</v>
+        <v>0.122294157951187</v>
       </c>
       <c r="G48" t="n">
-        <v>0.09804250984374786</v>
+        <v>0.0974910709967885</v>
       </c>
     </row>
     <row r="49">
@@ -1554,19 +1554,19 @@
         <v>2015</v>
       </c>
       <c r="C49" t="n">
-        <v>1.326992189581744</v>
+        <v>1.315140810373198</v>
       </c>
       <c r="D49" t="n">
         <v>0.802386545</v>
       </c>
       <c r="E49" t="n">
-        <v>1.653806632041349</v>
+        <v>1.639036470100827</v>
       </c>
       <c r="F49" t="n">
-        <v>0.121113069692947</v>
+        <v>0.1200314077756342</v>
       </c>
       <c r="G49" t="n">
-        <v>0.09717949754526793</v>
+        <v>0.09631158657657721</v>
       </c>
     </row>
     <row r="50">
@@ -1577,19 +1577,19 @@
         <v>2016</v>
       </c>
       <c r="C50" t="n">
-        <v>1.318509483997258</v>
+        <v>1.304783119122762</v>
       </c>
       <c r="D50" t="n">
         <v>0.80285518</v>
       </c>
       <c r="E50" t="n">
-        <v>1.64227561438572</v>
+        <v>1.625178676835295</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1202686197325348</v>
+        <v>0.1190165612699776</v>
       </c>
       <c r="G50" t="n">
-        <v>0.09655828434371577</v>
+        <v>0.09555306272138883</v>
       </c>
     </row>
     <row r="51">
@@ -1600,19 +1600,19 @@
         <v>2017</v>
       </c>
       <c r="C51" t="n">
-        <v>1.317961609015017</v>
+        <v>1.302501009379456</v>
       </c>
       <c r="D51" t="n">
         <v>0.814775397</v>
       </c>
       <c r="E51" t="n">
-        <v>1.617576590883509</v>
+        <v>1.598601300647098</v>
       </c>
       <c r="F51" t="n">
-        <v>0.118459838405374</v>
+        <v>0.1170702227125106</v>
       </c>
       <c r="G51" t="n">
-        <v>0.09651816186529441</v>
+        <v>0.09538593718746423</v>
       </c>
     </row>
     <row r="52">
@@ -1623,19 +1623,19 @@
         <v>2018</v>
       </c>
       <c r="C52" t="n">
-        <v>1.298223095620389</v>
+        <v>1.296052864122837</v>
       </c>
       <c r="D52" t="n">
         <v>0.816034876</v>
       </c>
       <c r="E52" t="n">
-        <v>1.590891680982993</v>
+        <v>1.588232197226381</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1165056248413965</v>
+        <v>0.1163108631109007</v>
       </c>
       <c r="G52" t="n">
-        <v>0.09507265312075155</v>
+        <v>0.09491372075615678</v>
       </c>
     </row>
     <row r="53">
@@ -1646,19 +1646,19 @@
         <v>2019</v>
       </c>
       <c r="C53" t="n">
-        <v>1.282086093880505</v>
+        <v>1.276281382275522</v>
       </c>
       <c r="D53" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E53" t="n">
-        <v>1.556245668006162</v>
+        <v>1.549199684641708</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1139683965445996</v>
+        <v>0.1134523986898679</v>
       </c>
       <c r="G53" t="n">
-        <v>0.09389089354953409</v>
+        <v>0.09346579763593625</v>
       </c>
     </row>
     <row r="54">
@@ -1669,19 +1669,19 @@
         <v>2020</v>
       </c>
       <c r="C54" t="n">
-        <v>1.192528000569879</v>
+        <v>1.190921954421548</v>
       </c>
       <c r="D54" t="n">
         <v>0.652404788</v>
       </c>
       <c r="E54" t="n">
-        <v>1.827895843967778</v>
+        <v>1.825434111347368</v>
       </c>
       <c r="F54" t="n">
-        <v>0.133862129013631</v>
+        <v>0.1336818491739903</v>
       </c>
       <c r="G54" t="n">
-        <v>0.08733229390036658</v>
+        <v>0.08721467846980514</v>
       </c>
     </row>
     <row r="55">
@@ -1692,19 +1692,19 @@
         <v>2021</v>
       </c>
       <c r="C55" t="n">
-        <v>1.161069345973242</v>
+        <v>1.150148931499757</v>
       </c>
       <c r="D55" t="n">
         <v>0.676752312</v>
       </c>
       <c r="E55" t="n">
-        <v>1.715648879782833</v>
+        <v>1.699512378614168</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1256419573606895</v>
+        <v>0.1244602344477583</v>
       </c>
       <c r="G55" t="n">
-        <v>0.08502848512805203</v>
+        <v>0.08422875141458244</v>
       </c>
     </row>
     <row r="56">
@@ -1715,19 +1715,19 @@
         <v>2022</v>
       </c>
       <c r="C56" t="n">
-        <v>1.144415065311989</v>
+        <v>1.142005350412699</v>
       </c>
       <c r="D56" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E56" t="n">
-        <v>1.679312321666448</v>
+        <v>1.681497877118</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1229809255264421</v>
+        <v>0.1231409801087573</v>
       </c>
       <c r="G56" t="n">
-        <v>0.08380884371693828</v>
+        <v>0.08363237328630661</v>
       </c>
     </row>
     <row r="57">
@@ -1738,19 +1738,19 @@
         <v>2023</v>
       </c>
       <c r="C57" t="n">
-        <v>1.127760784650737</v>
+        <v>1.135647554608852</v>
       </c>
       <c r="D57" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E57" t="n">
-        <v>1.642975763550063</v>
+        <v>1.667433730055871</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1203198936921947</v>
+        <v>0.1221110217144045</v>
       </c>
       <c r="G57" t="n">
-        <v>0.08258920230582452</v>
+        <v>0.08316677340820329</v>
       </c>
     </row>
     <row r="58">
@@ -1761,19 +1761,19 @@
         <v>2024</v>
       </c>
       <c r="C58" t="n">
-        <v>1.111106503989484</v>
+        <v>1.124752312390587</v>
       </c>
       <c r="D58" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E58" t="n">
-        <v>1.606639205433678</v>
+        <v>1.643332249989076</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1176588618579472</v>
+        <v>0.1203460002309498</v>
       </c>
       <c r="G58" t="n">
-        <v>0.08136956089471077</v>
+        <v>0.08236888313219592</v>
       </c>
     </row>
     <row r="59">
@@ -1784,19 +1784,19 @@
         <v>2025</v>
       </c>
       <c r="C59" t="n">
-        <v>1.094452223328231</v>
+        <v>1.106894511493559</v>
       </c>
       <c r="D59" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E59" t="n">
-        <v>1.570302647317293</v>
+        <v>1.603828820534797</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1149978300236998</v>
+        <v>0.1174530491979133</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08014991948359702</v>
+        <v>0.08106110443382726</v>
       </c>
     </row>
     <row r="60">
@@ -1807,19 +1807,19 @@
         <v>2026</v>
       </c>
       <c r="C60" t="n">
-        <v>1.077797942666979</v>
+        <v>1.079657624613052</v>
       </c>
       <c r="D60" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E60" t="n">
-        <v>1.533966089200908</v>
+        <v>1.543577816189835</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1123367981894524</v>
+        <v>0.1130406929121641</v>
       </c>
       <c r="G60" t="n">
-        <v>0.07893027807248328</v>
+        <v>0.07906646799020264</v>
       </c>
     </row>
     <row r="61">
@@ -1830,19 +1830,19 @@
         <v>2027</v>
       </c>
       <c r="C61" t="n">
-        <v>1.061143662005726</v>
+        <v>1.042361339290171</v>
       </c>
       <c r="D61" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E61" t="n">
-        <v>1.497629531084523</v>
+        <v>1.461074310598378</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1096757663552049</v>
+        <v>0.1069987212396495</v>
       </c>
       <c r="G61" t="n">
-        <v>0.07771063666136953</v>
+        <v>0.07633515254129643</v>
       </c>
     </row>
     <row r="62">
@@ -1853,19 +1853,19 @@
         <v>2028</v>
       </c>
       <c r="C62" t="n">
-        <v>1.044489381344474</v>
+        <v>0.9981777361154145</v>
       </c>
       <c r="D62" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E62" t="n">
-        <v>1.461292972968138</v>
+        <v>1.363335296645078</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1070147345209575</v>
+        <v>0.09984100897794779</v>
       </c>
       <c r="G62" t="n">
-        <v>0.07649099525025578</v>
+        <v>0.07309945877461668</v>
       </c>
     </row>
     <row r="63">
@@ -1876,19 +1876,19 @@
         <v>2029</v>
       </c>
       <c r="C63" t="n">
-        <v>1.027835100683221</v>
+        <v>0.9539941329406577</v>
       </c>
       <c r="D63" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E63" t="n">
-        <v>1.424956414851753</v>
+        <v>1.265596282691778</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1043537026867101</v>
+        <v>0.09268329671624609</v>
       </c>
       <c r="G63" t="n">
-        <v>0.07527135383914202</v>
+        <v>0.06986376500793694</v>
       </c>
     </row>
     <row r="64">
@@ -1899,19 +1899,19 @@
         <v>2030</v>
       </c>
       <c r="C64" t="n">
-        <v>1.011180820021968</v>
+        <v>0.9166978476177772</v>
       </c>
       <c r="D64" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E64" t="n">
-        <v>1.388619856735368</v>
+        <v>1.18309277710032</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1016926708524627</v>
+        <v>0.08664132504373147</v>
       </c>
       <c r="G64" t="n">
-        <v>0.07405171242802827</v>
+        <v>0.06713244955903074</v>
       </c>
     </row>
     <row r="65">
@@ -1922,19 +1922,19 @@
         <v>2031</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9945265393607157</v>
+        <v>0.8894609607372701</v>
       </c>
       <c r="D65" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E65" t="n">
-        <v>1.352283298618983</v>
+        <v>1.122841772755358</v>
       </c>
       <c r="F65" t="n">
-        <v>0.09903163901821524</v>
+        <v>0.08222896875798222</v>
       </c>
       <c r="G65" t="n">
-        <v>0.07283207101691452</v>
+        <v>0.06513781311540612</v>
       </c>
     </row>
     <row r="66">
@@ -1945,19 +1945,19 @@
         <v>2032</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9778722586994631</v>
+        <v>0.8716031598402422</v>
       </c>
       <c r="D66" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E66" t="n">
-        <v>1.315946740502598</v>
+        <v>1.083338343301079</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0963706071839678</v>
+        <v>0.07933601772494581</v>
       </c>
       <c r="G66" t="n">
-        <v>0.07161242960580079</v>
+        <v>0.06383003441703744</v>
       </c>
     </row>
     <row r="67">
@@ -1968,19 +1968,19 @@
         <v>2033</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9612179780382105</v>
+        <v>0.8607079176219773</v>
       </c>
       <c r="D67" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E67" t="n">
-        <v>1.279610182386213</v>
+        <v>1.059236863234285</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09370957534972037</v>
+        <v>0.07757099624149107</v>
       </c>
       <c r="G67" t="n">
-        <v>0.07039278819468703</v>
+        <v>0.06303214414103009</v>
       </c>
     </row>
     <row r="68">
@@ -1991,19 +1991,19 @@
         <v>2034</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9445636973769579</v>
+        <v>0.8543501218181296</v>
       </c>
       <c r="D68" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E68" t="n">
-        <v>1.243273624269828</v>
+        <v>1.045172716172156</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09104854351547295</v>
+        <v>0.07654103784713821</v>
       </c>
       <c r="G68" t="n">
-        <v>0.06917314678357328</v>
+        <v>0.06256654426292677</v>
       </c>
     </row>
     <row r="69">
@@ -2014,19 +2014,19 @@
         <v>2035</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9279094167157053</v>
+        <v>0.8507361338896253</v>
       </c>
       <c r="D69" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E69" t="n">
-        <v>1.206937066153443</v>
+        <v>1.037178175410642</v>
       </c>
       <c r="F69" t="n">
-        <v>0.08838751168122552</v>
+        <v>0.07595557437537961</v>
       </c>
       <c r="G69" t="n">
-        <v>0.06795350537245953</v>
+        <v>0.06230188141578717</v>
       </c>
     </row>
     <row r="70">
@@ -2037,19 +2037,19 @@
         <v>2036</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9112551360544526</v>
+        <v>0.8462065407310719</v>
       </c>
       <c r="D70" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E70" t="n">
-        <v>1.170600508037059</v>
+        <v>1.027158214675988</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08572647984697811</v>
+        <v>0.07522178350813724</v>
       </c>
       <c r="G70" t="n">
-        <v>0.06673386396134579</v>
+        <v>0.06197016613465093</v>
       </c>
     </row>
     <row r="71">
@@ -2060,19 +2060,19 @@
         <v>2037</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8946008553932</v>
+        <v>0.8462065407310719</v>
       </c>
       <c r="D71" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E71" t="n">
-        <v>1.134263949920673</v>
+        <v>1.027158214675988</v>
       </c>
       <c r="F71" t="n">
-        <v>0.08306544801273068</v>
+        <v>0.07522178350813724</v>
       </c>
       <c r="G71" t="n">
-        <v>0.06551422255023204</v>
+        <v>0.06197016613465093</v>
       </c>
     </row>
     <row r="72">
@@ -2083,19 +2083,19 @@
         <v>2038</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8779465747319474</v>
+        <v>0.8462065407310719</v>
       </c>
       <c r="D72" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E72" t="n">
-        <v>1.097927391804288</v>
+        <v>1.027158214675988</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08040441617848323</v>
+        <v>0.07522178350813724</v>
       </c>
       <c r="G72" t="n">
-        <v>0.06429458113911828</v>
+        <v>0.06197016613465093</v>
       </c>
     </row>
     <row r="73">
@@ -2106,19 +2106,19 @@
         <v>2039</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8612922940706947</v>
+        <v>0.8462065407310719</v>
       </c>
       <c r="D73" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E73" t="n">
-        <v>1.061590833687903</v>
+        <v>1.027158214675988</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07774338434423581</v>
+        <v>0.07522178350813724</v>
       </c>
       <c r="G73" t="n">
-        <v>0.06307493972800453</v>
+        <v>0.06197016613465093</v>
       </c>
     </row>
     <row r="74">
@@ -2129,19 +2129,19 @@
         <v>2040</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8446380134094421</v>
+        <v>0.8452240531960947</v>
       </c>
       <c r="D74" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E74" t="n">
-        <v>1.025254275571518</v>
+        <v>1.025965633321681</v>
       </c>
       <c r="F74" t="n">
-        <v>0.07508235250998838</v>
+        <v>0.07513444730698753</v>
       </c>
       <c r="G74" t="n">
-        <v>0.06185529831689078</v>
+        <v>0.06189821571493997</v>
       </c>
     </row>
     <row r="75">
@@ -2152,19 +2152,19 @@
         <v>2041</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8398824284667191</v>
+        <v>0.8441160234904356</v>
       </c>
       <c r="D75" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E75" t="n">
-        <v>1.01948176271043</v>
+        <v>1.024620664026963</v>
       </c>
       <c r="F75" t="n">
-        <v>0.07465961460405465</v>
+        <v>0.07503595129374746</v>
       </c>
       <c r="G75" t="n">
-        <v>0.061507033000112</v>
+        <v>0.06181707147693573</v>
       </c>
     </row>
     <row r="76">
@@ -2175,19 +2175,19 @@
         <v>2042</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8351268435239961</v>
+        <v>0.8418709193803046</v>
       </c>
       <c r="D76" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E76" t="n">
-        <v>1.013709249849341</v>
+        <v>1.021895469859199</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07423687669812096</v>
+        <v>0.07483637739872696</v>
       </c>
       <c r="G76" t="n">
-        <v>0.06115876768333321</v>
+        <v>0.06165265597315788</v>
       </c>
     </row>
     <row r="77">
@@ -2198,19 +2198,19 @@
         <v>2043</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8303712585812731</v>
+        <v>0.8376531692092239</v>
       </c>
       <c r="D77" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E77" t="n">
-        <v>1.007936736988253</v>
+        <v>1.01677580163738</v>
       </c>
       <c r="F77" t="n">
-        <v>0.07381413879218723</v>
+        <v>0.07446144920449872</v>
       </c>
       <c r="G77" t="n">
-        <v>0.06081050236655442</v>
+        <v>0.06134377786097678</v>
       </c>
     </row>
     <row r="78">
@@ -2221,19 +2221,19 @@
         <v>2044</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8256156736385502</v>
+        <v>0.8307484465687006</v>
       </c>
       <c r="D78" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E78" t="n">
-        <v>1.002164224127164</v>
+        <v>1.008394582350011</v>
       </c>
       <c r="F78" t="n">
-        <v>0.07339140088625351</v>
+        <v>0.07384766813965318</v>
       </c>
       <c r="G78" t="n">
-        <v>0.06046223704977564</v>
+        <v>0.06083812493990948</v>
       </c>
     </row>
     <row r="79">
@@ -2244,19 +2244,19 @@
         <v>2045</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8208600886958273</v>
+        <v>0.8216443523566421</v>
       </c>
       <c r="D79" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9963917112660757</v>
+        <v>0.9973436808183105</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0729686629803198</v>
+        <v>0.07303837847939423</v>
       </c>
       <c r="G79" t="n">
-        <v>0.06011397173299686</v>
+        <v>0.06017140564187692</v>
       </c>
     </row>
     <row r="80">
@@ -2267,19 +2267,19 @@
         <v>2046</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8161045037531043</v>
+        <v>0.8125402581445836</v>
       </c>
       <c r="D80" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9906191984049872</v>
+        <v>0.98629277928661</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07254592507438609</v>
+        <v>0.07222908881913528</v>
       </c>
       <c r="G80" t="n">
-        <v>0.05976570641621807</v>
+        <v>0.05950468634384437</v>
       </c>
     </row>
     <row r="81">
@@ -2290,19 +2290,19 @@
         <v>2047</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8113489188103813</v>
+        <v>0.8056355355040603</v>
       </c>
       <c r="D81" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9848466855438986</v>
+        <v>0.9779115599992413</v>
       </c>
       <c r="F81" t="n">
-        <v>0.07212318716845237</v>
+        <v>0.07161530775428974</v>
       </c>
       <c r="G81" t="n">
-        <v>0.05941744109943928</v>
+        <v>0.05899903342277708</v>
       </c>
     </row>
     <row r="82">
@@ -2313,19 +2313,19 @@
         <v>2048</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8065933338676583</v>
+        <v>0.8014177853329798</v>
       </c>
       <c r="D82" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9790741726828102</v>
+        <v>0.9727918917774221</v>
       </c>
       <c r="F82" t="n">
-        <v>0.07170044926251866</v>
+        <v>0.0712403795600615</v>
       </c>
       <c r="G82" t="n">
-        <v>0.05906917578266049</v>
+        <v>0.05869015531059597</v>
       </c>
     </row>
     <row r="83">
@@ -2336,19 +2336,19 @@
         <v>2049</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8018377489249353</v>
+        <v>0.7991726812228487</v>
       </c>
       <c r="D83" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9733016598217216</v>
+        <v>0.9700666976096581</v>
       </c>
       <c r="F83" t="n">
-        <v>0.07127771135658495</v>
+        <v>0.07104080566504102</v>
       </c>
       <c r="G83" t="n">
-        <v>0.05872091046588171</v>
+        <v>0.05852573980681813</v>
       </c>
     </row>
     <row r="84">
@@ -2359,19 +2359,19 @@
         <v>2050</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7970821639822123</v>
+        <v>0.7980646515171895</v>
       </c>
       <c r="D84" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9675291469606331</v>
+        <v>0.9687217283149402</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07085497345065124</v>
+        <v>0.07094230965180096</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05837264514910293</v>
+        <v>0.05844459556881389</v>
       </c>
     </row>
   </sheetData>
